--- a/f_factor/dP_f_Agulhas/Dimensions.xlsx
+++ b/f_factor/dP_f_Agulhas/Dimensions.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.correa\Downloads\Artificial-Neural-Network-main\Artificial-Neural-Network-main\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF2C15-F014-4C6B-982A-D00BE082CD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20430" yWindow="780" windowWidth="15770" windowHeight="17870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
     <sheet name="V3" sheetId="2" r:id="rId2"/>
     <sheet name="V4" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>CS6</t>
   </si>
@@ -68,12 +67,15 @@
   </si>
   <si>
     <t>Dh</t>
+  </si>
+  <si>
+    <t>stdp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,16 +387,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -414,7 +416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -437,7 +439,7 @@
         <v>1.8482999999999999E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -460,7 +462,7 @@
         <v>1.2555999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -489,7 +491,7 @@
         <v>1.5402499999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -518,7 +520,7 @@
         <v>5.8881809493469255E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ref="B6:G6" si="2">120/1000</f>
         <v>0.12</v>
@@ -543,6 +545,48 @@
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.2495</v>
+      </c>
+      <c r="C7">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.3745</v>
+      </c>
+      <c r="E7">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -550,16 +594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF4C986-6D35-44AC-BFF3-F7F4DA8785A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -579,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -602,7 +646,7 @@
         <v>2.1603E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -625,7 +669,7 @@
         <v>1.2737999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -654,7 +698,7 @@
         <v>1.80025E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -683,7 +727,7 @@
         <v>6.7837965143664625E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ref="B6:G6" si="2">120/1000</f>
         <v>0.12</v>
@@ -715,16 +759,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830D1ED1-3B62-44B7-B73F-343B3E27956F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G6"/>
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -744,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -767,7 +811,7 @@
         <v>2.1909999999999999E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -790,7 +834,7 @@
         <v>1.2621E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -819,7 +863,7 @@
         <v>1.8258333333333332E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -848,7 +892,7 @@
         <v>6.9439822518025506E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>120/1000</f>
         <v>0.12</v>

--- a/f_factor/dP_f_Agulhas/Dimensions.xlsx
+++ b/f_factor/dP_f_Agulhas/Dimensions.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.correa\Downloads\Artificial-Neural-Network-main\Artificial-Neural-Network-main\f_factor\dP_f_Agulhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89841A41-1B7B-40AE-ACC6-D52546E8B1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="1305" yWindow="1020" windowWidth="13545" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
     <sheet name="V3" sheetId="2" r:id="rId2"/>
     <sheet name="V4" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,16 +388,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -416,7 +417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -439,7 +440,7 @@
         <v>1.8482999999999999E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -462,7 +463,7 @@
         <v>1.2555999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -491,7 +492,7 @@
         <v>1.5402499999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -520,7 +521,7 @@
         <v>5.8881809493469255E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" ref="B6:G6" si="2">120/1000</f>
         <v>0.12</v>
@@ -546,7 +547,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -569,7 +570,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -577,7 +578,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -585,7 +586,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
   </sheetData>
@@ -594,16 +595,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.4820999999999999E-5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.8128E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.9519999999999999E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.0140999999999999E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.1401999999999999E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.1603E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.8851000000000002E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.2395000000000002E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.8447999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.6305E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.4599000000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.2737999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <f>(B2/B6)</f>
+        <v>1.2350833333333333E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:G4" si="0">(C2/C6)</f>
+        <v>1.5106666666666666E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6266666666666667E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6784166666666668E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7835E-4</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.80025E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <f>(4*B2)/B3</f>
+        <v>2.0548334546462857E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:G5" si="1">(4*C2)/C3</f>
+        <v>3.2378655949988834E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2324371205550741E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.941061024225697E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8639632851565171E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7837965143664625E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" ref="B6:G6" si="2">120/1000</f>
+        <v>0.12</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -623,199 +789,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>1.4820999999999999E-5</v>
+        <v>1.5081E-5</v>
       </c>
       <c r="C2" s="1">
-        <v>1.8128E-5</v>
+        <v>1.8382000000000001E-5</v>
       </c>
       <c r="D2" s="1">
-        <v>1.9519999999999999E-5</v>
+        <v>1.9695E-5</v>
       </c>
       <c r="E2" s="1">
-        <v>2.0140999999999999E-5</v>
+        <v>2.0588999999999999E-5</v>
       </c>
       <c r="F2" s="1">
-        <v>2.1401999999999999E-5</v>
+        <v>2.1539000000000002E-5</v>
       </c>
       <c r="G2" s="1">
-        <v>2.1603E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.1909999999999999E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>2.8851000000000002E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.2395000000000002E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.8447999999999999E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.6305E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.4599000000000001E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.2737999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <f>(B2/B6)</f>
-        <v>1.2350833333333333E-4</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:G4" si="0">(C2/C6)</f>
-        <v>1.5106666666666666E-4</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6266666666666667E-4</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6784166666666668E-4</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7835E-4</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.80025E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <f>(4*B2)/B3</f>
-        <v>2.0548334546462857E-3</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:G5" si="1">(4*C2)/C3</f>
-        <v>3.2378655949988834E-3</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.2324371205550741E-3</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.941061024225697E-3</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8639632851565171E-3</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>6.7837965143664625E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <f t="shared" ref="B6:G6" si="2">120/1000</f>
-        <v>0.12</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.5081E-5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.8382000000000001E-5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.9695E-5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.0588999999999999E-5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.1539000000000002E-5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.1909999999999999E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
         <v>2.8882000000000001E-2</v>
       </c>
       <c r="C3" s="1">
@@ -834,7 +835,7 @@
         <v>1.2621E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -863,7 +864,7 @@
         <v>1.8258333333333332E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -892,7 +893,7 @@
         <v>6.9439822518025506E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>120/1000</f>
         <v>0.12</v>
